--- a/class_10_auto/cases.xlsx
+++ b/class_10_auto/cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10977\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python25_ningmeng\class_10_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0634EB-5A98-4F42-B45B-5B2FFD8BA99F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F8643A-B84C-4DE7-AB34-59BFEF944469}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9015" yWindow="1485" windowWidth="16665" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14805" yWindow="1440" windowWidth="16665" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>model_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,18 +55,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expected_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手机号为空</t>
   </si>
   <si>
@@ -99,6 +87,10 @@
   </si>
   <si>
     <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
+  </si>
+  <si>
+    <t>expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -426,36 +418,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -464,70 +456,61 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
